--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-26.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-26.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="341">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/25/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/26/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Active Cases 02-24</t>
+  </si>
+  <si>
+    <t>Active Cases 02-25</t>
   </si>
   <si>
     <t/>
@@ -1224,6 +1227,7 @@
     <col min="75" max="75" width="12.0" customWidth="true"/>
     <col min="76" max="76" width="12.0" customWidth="true"/>
     <col min="77" max="77" width="12.0" customWidth="true"/>
+    <col min="78" max="78" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1468,13 +1472,16 @@
       <c r="BY3" t="s" s="10">
         <v>78</v>
       </c>
+      <c r="BZ3" t="s" s="10">
+        <v>79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1700,14 +1707,17 @@
       </c>
       <c r="BY4" t="n">
         <v>88.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1932,15 +1942,18 @@
         <v>146.0</v>
       </c>
       <c r="BY5" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2166,14 +2179,17 @@
       </c>
       <c r="BY6" t="n">
         <v>293.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2399,14 +2415,17 @@
       </c>
       <c r="BY7" t="n">
         <v>44.0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2631,15 +2650,18 @@
         <v>1.0</v>
       </c>
       <c r="BY8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2864,15 +2886,18 @@
         <v>0.0</v>
       </c>
       <c r="BY9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3098,14 +3123,17 @@
       </c>
       <c r="BY10" t="n">
         <v>62.0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3330,15 +3358,18 @@
         <v>33.0</v>
       </c>
       <c r="BY11" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BZ11" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3563,15 +3594,18 @@
         <v>8.0</v>
       </c>
       <c r="BY12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BZ12" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3797,14 +3831,17 @@
       </c>
       <c r="BY13" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -4030,14 +4067,17 @@
       </c>
       <c r="BY14" t="n">
         <v>859.0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>845.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4262,15 +4302,18 @@
         <v>0.0</v>
       </c>
       <c r="BY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4496,14 +4539,17 @@
       </c>
       <c r="BY16" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4729,14 +4775,17 @@
       </c>
       <c r="BY17" t="n">
         <v>399.0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>398.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4962,14 +5011,17 @@
       </c>
       <c r="BY18" t="n">
         <v>11244.0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>10821.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5195,14 +5247,17 @@
       </c>
       <c r="BY19" t="n">
         <v>77.0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5427,15 +5482,18 @@
         <v>0.0</v>
       </c>
       <c r="BY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5661,14 +5719,17 @@
       </c>
       <c r="BY21" t="n">
         <v>143.0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -5893,15 +5954,18 @@
         <v>507.0</v>
       </c>
       <c r="BY22" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="BZ22" t="n">
         <v>491.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6127,14 +6191,17 @@
       </c>
       <c r="BY23" t="n">
         <v>3099.0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>3114.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -6360,14 +6427,17 @@
       </c>
       <c r="BY24" t="n">
         <v>577.0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>635.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -6592,15 +6662,18 @@
         <v>0.0</v>
       </c>
       <c r="BY25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -6825,15 +6898,18 @@
         <v>0.0</v>
       </c>
       <c r="BY26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BZ26" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -7059,14 +7135,17 @@
       </c>
       <c r="BY27" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -7291,15 +7370,18 @@
         <v>128.0</v>
       </c>
       <c r="BY28" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BZ28" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -7525,14 +7607,17 @@
       </c>
       <c r="BY29" t="n">
         <v>245.0</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -7758,14 +7843,17 @@
       </c>
       <c r="BY30" t="n">
         <v>479.0</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>482.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -7991,14 +8079,17 @@
       </c>
       <c r="BY31" t="n">
         <v>508.0</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>546.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -8224,14 +8315,17 @@
       </c>
       <c r="BY32" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -8457,14 +8551,17 @@
       </c>
       <c r="BY33" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -8690,14 +8787,17 @@
       </c>
       <c r="BY34" t="n">
         <v>4343.0</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>4237.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -8923,14 +9023,17 @@
       </c>
       <c r="BY35" t="n">
         <v>171.0</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -9156,14 +9259,17 @@
       </c>
       <c r="BY36" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -9389,14 +9495,17 @@
       </c>
       <c r="BY37" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -9622,14 +9731,17 @@
       </c>
       <c r="BY38" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -9855,14 +9967,17 @@
       </c>
       <c r="BY39" t="n">
         <v>146.0</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -10087,15 +10202,18 @@
         <v>0.0</v>
       </c>
       <c r="BY40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -10321,14 +10439,17 @@
       </c>
       <c r="BY41" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -10553,15 +10674,18 @@
         <v>2.0</v>
       </c>
       <c r="BY42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ42" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -10787,14 +10911,17 @@
       </c>
       <c r="BY43" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -11020,14 +11147,17 @@
       </c>
       <c r="BY44" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -11253,14 +11383,17 @@
       </c>
       <c r="BY45" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -11486,14 +11619,17 @@
       </c>
       <c r="BY46" t="n">
         <v>1150.0</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>1213.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -11718,15 +11854,18 @@
         <v>4.0</v>
       </c>
       <c r="BY47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ47" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -11952,14 +12091,17 @@
       </c>
       <c r="BY48" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -12185,14 +12327,17 @@
       </c>
       <c r="BY49" t="n">
         <v>246.0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>233.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -12417,15 +12562,18 @@
         <v>4.0</v>
       </c>
       <c r="BY50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ50" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -12651,14 +12799,17 @@
       </c>
       <c r="BY51" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -12884,14 +13035,17 @@
       </c>
       <c r="BY52" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -13117,14 +13271,17 @@
       </c>
       <c r="BY53" t="n">
         <v>543.0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>559.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -13349,15 +13506,18 @@
         <v>1.0</v>
       </c>
       <c r="BY54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ54" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -13583,14 +13743,17 @@
       </c>
       <c r="BY55" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -13816,14 +13979,17 @@
       </c>
       <c r="BY56" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -14048,15 +14214,18 @@
         <v>0.0</v>
       </c>
       <c r="BY57" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BZ57" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -14282,14 +14451,17 @@
       </c>
       <c r="BY58" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -14515,14 +14687,17 @@
       </c>
       <c r="BY59" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -14748,14 +14923,17 @@
       </c>
       <c r="BY60" t="n">
         <v>12621.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>12187.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -14980,15 +15158,18 @@
         <v>7.0</v>
       </c>
       <c r="BY61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BZ61" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -15214,14 +15395,17 @@
       </c>
       <c r="BY62" t="n">
         <v>62.0</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -15447,14 +15631,17 @@
       </c>
       <c r="BY63" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -15680,14 +15867,17 @@
       </c>
       <c r="BY64" t="n">
         <v>11955.0</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>12053.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -15912,15 +16102,18 @@
         <v>30.0</v>
       </c>
       <c r="BY65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BZ65" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -16145,15 +16338,18 @@
         <v>0.0</v>
       </c>
       <c r="BY66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BZ66" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -16379,14 +16575,17 @@
       </c>
       <c r="BY67" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -16612,14 +16811,17 @@
       </c>
       <c r="BY68" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -16845,14 +17047,17 @@
       </c>
       <c r="BY69" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -17078,14 +17283,17 @@
       </c>
       <c r="BY70" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -17311,14 +17519,17 @@
       </c>
       <c r="BY71" t="n">
         <v>1496.0</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>1304.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -17543,15 +17754,18 @@
         <v>0.0</v>
       </c>
       <c r="BY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -17777,14 +17991,17 @@
       </c>
       <c r="BY73" t="n">
         <v>135.0</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -18010,14 +18227,17 @@
       </c>
       <c r="BY74" t="n">
         <v>6404.0</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>6086.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -18243,14 +18463,17 @@
       </c>
       <c r="BY75" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -18476,14 +18699,17 @@
       </c>
       <c r="BY76" t="n">
         <v>115.0</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -18709,14 +18935,17 @@
       </c>
       <c r="BY77" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BZ77" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -18942,14 +19171,17 @@
       </c>
       <c r="BY78" t="n">
         <v>185.0</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -19174,15 +19406,18 @@
         <v>0.0</v>
       </c>
       <c r="BY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -19408,14 +19643,17 @@
       </c>
       <c r="BY80" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -19640,15 +19878,18 @@
         <v>0.0</v>
       </c>
       <c r="BY81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -19874,14 +20115,17 @@
       </c>
       <c r="BY82" t="n">
         <v>10578.0</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>10334.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -20107,14 +20351,17 @@
       </c>
       <c r="BY83" t="n">
         <v>103.0</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -20340,14 +20587,17 @@
       </c>
       <c r="BY84" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -20573,14 +20823,17 @@
       </c>
       <c r="BY85" t="n">
         <v>35.0</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -20805,15 +21058,18 @@
         <v>8.0</v>
       </c>
       <c r="BY86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BZ86" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -21039,14 +21295,17 @@
       </c>
       <c r="BY87" t="n">
         <v>4754.0</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>4688.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -21272,14 +21531,17 @@
       </c>
       <c r="BY88" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -21505,14 +21767,17 @@
       </c>
       <c r="BY89" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -21737,15 +22002,18 @@
         <v>0.0</v>
       </c>
       <c r="BY90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -21970,15 +22238,18 @@
         <v>14.0</v>
       </c>
       <c r="BY91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BZ91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -22204,14 +22475,17 @@
       </c>
       <c r="BY92" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -22437,14 +22711,17 @@
       </c>
       <c r="BY93" t="n">
         <v>45.0</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -22670,14 +22947,17 @@
       </c>
       <c r="BY94" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -22903,14 +23183,17 @@
       </c>
       <c r="BY95" t="n">
         <v>3185.0</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>3232.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -23136,14 +23419,17 @@
       </c>
       <c r="BY96" t="n">
         <v>394.0</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -23369,14 +23655,17 @@
       </c>
       <c r="BY97" t="n">
         <v>162.0</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -23602,14 +23891,17 @@
       </c>
       <c r="BY98" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -23834,15 +24126,18 @@
         <v>9.0</v>
       </c>
       <c r="BY99" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BZ99" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -24068,14 +24363,17 @@
       </c>
       <c r="BY100" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -24301,14 +24599,17 @@
       </c>
       <c r="BY101" t="n">
         <v>41.0</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -24533,15 +24834,18 @@
         <v>0.0</v>
       </c>
       <c r="BY102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -24767,14 +25071,17 @@
       </c>
       <c r="BY103" t="n">
         <v>574.0</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>605.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -25000,14 +25307,17 @@
       </c>
       <c r="BY104" t="n">
         <v>21796.0</v>
+      </c>
+      <c r="BZ104" t="n">
+        <v>18721.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -25233,14 +25543,17 @@
       </c>
       <c r="BY105" t="n">
         <v>808.0</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>804.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -25465,15 +25778,18 @@
         <v>75.0</v>
       </c>
       <c r="BY106" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BZ106" t="n">
         <v>74.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -25699,14 +26015,17 @@
       </c>
       <c r="BY107" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -25932,14 +26251,17 @@
       </c>
       <c r="BY108" t="n">
         <v>539.0</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>498.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -26165,14 +26487,17 @@
       </c>
       <c r="BY109" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -26398,14 +26723,17 @@
       </c>
       <c r="BY110" t="n">
         <v>1790.0</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>1832.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -26631,14 +26959,17 @@
       </c>
       <c r="BY111" t="n">
         <v>1912.0</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>1895.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -26864,14 +27195,17 @@
       </c>
       <c r="BY112" t="n">
         <v>441.0</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -27096,15 +27430,18 @@
         <v>4.0</v>
       </c>
       <c r="BY113" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BZ113" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -27330,14 +27667,17 @@
       </c>
       <c r="BY114" t="n">
         <v>35.0</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -27563,14 +27903,17 @@
       </c>
       <c r="BY115" t="n">
         <v>162.0</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -27796,14 +28139,17 @@
       </c>
       <c r="BY116" t="n">
         <v>73.0</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -28029,14 +28375,17 @@
       </c>
       <c r="BY117" t="n">
         <v>51.0</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -28261,15 +28610,18 @@
         <v>18.0</v>
       </c>
       <c r="BY118" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BZ118" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -28494,15 +28846,18 @@
         <v>1329.0</v>
       </c>
       <c r="BY119" t="n">
+        <v>1329.0</v>
+      </c>
+      <c r="BZ119" t="n">
         <v>1329.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -28728,14 +29083,17 @@
       </c>
       <c r="BY120" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BZ120" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -28960,15 +29318,18 @@
         <v>14.0</v>
       </c>
       <c r="BY121" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BZ121" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -29194,14 +29555,17 @@
       </c>
       <c r="BY122" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -29427,14 +29791,17 @@
       </c>
       <c r="BY123" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -29659,15 +30026,18 @@
         <v>25.0</v>
       </c>
       <c r="BY124" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BZ124" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -29892,15 +30262,18 @@
         <v>26.0</v>
       </c>
       <c r="BY125" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BZ125" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -30126,14 +30499,17 @@
       </c>
       <c r="BY126" t="n">
         <v>1874.0</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>1828.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -30358,15 +30734,18 @@
         <v>15.0</v>
       </c>
       <c r="BY127" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BZ127" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -30592,14 +30971,17 @@
       </c>
       <c r="BY128" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BZ128" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -30825,14 +31207,17 @@
       </c>
       <c r="BY129" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BZ129" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -31058,14 +31443,17 @@
       </c>
       <c r="BY130" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BZ130" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -31291,14 +31679,17 @@
       </c>
       <c r="BY131" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BZ131" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -31524,14 +31915,17 @@
       </c>
       <c r="BY132" t="n">
         <v>136.0</v>
+      </c>
+      <c r="BZ132" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -31757,14 +32151,17 @@
       </c>
       <c r="BY133" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BZ133" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -31990,14 +32387,17 @@
       </c>
       <c r="BY134" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BZ134" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -32222,15 +32622,18 @@
         <v>0.0</v>
       </c>
       <c r="BY135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -32456,14 +32859,17 @@
       </c>
       <c r="BY136" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BZ136" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -32689,14 +33095,17 @@
       </c>
       <c r="BY137" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BZ137" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -32921,15 +33330,18 @@
         <v>0.0</v>
       </c>
       <c r="BY138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -33154,15 +33566,18 @@
         <v>0.0</v>
       </c>
       <c r="BY139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ139" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -33388,14 +33803,17 @@
       </c>
       <c r="BY140" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BZ140" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -33621,14 +34039,17 @@
       </c>
       <c r="BY141" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BZ141" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -33854,14 +34275,17 @@
       </c>
       <c r="BY142" t="n">
         <v>265.0</v>
+      </c>
+      <c r="BZ142" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -34086,15 +34510,18 @@
         <v>11.0</v>
       </c>
       <c r="BY143" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BZ143" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -34319,15 +34746,18 @@
         <v>282.0</v>
       </c>
       <c r="BY144" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="BZ144" t="n">
         <v>262.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -34553,14 +34983,17 @@
       </c>
       <c r="BY145" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BZ145" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -34786,14 +35219,17 @@
       </c>
       <c r="BY146" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BZ146" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -35019,14 +35455,17 @@
       </c>
       <c r="BY147" t="n">
         <v>245.0</v>
+      </c>
+      <c r="BZ147" t="n">
+        <v>223.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -35252,14 +35691,17 @@
       </c>
       <c r="BY148" t="n">
         <v>153.0</v>
+      </c>
+      <c r="BZ148" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -35485,14 +35927,17 @@
       </c>
       <c r="BY149" t="n">
         <v>275.0</v>
+      </c>
+      <c r="BZ149" t="n">
+        <v>261.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -35718,14 +36163,17 @@
       </c>
       <c r="BY150" t="n">
         <v>297.0</v>
+      </c>
+      <c r="BZ150" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -35951,14 +36399,17 @@
       </c>
       <c r="BY151" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BZ151" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -36184,14 +36635,17 @@
       </c>
       <c r="BY152" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BZ152" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -36417,14 +36871,17 @@
       </c>
       <c r="BY153" t="n">
         <v>179.0</v>
+      </c>
+      <c r="BZ153" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -36649,15 +37106,18 @@
         <v>0.0</v>
       </c>
       <c r="BY154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -36883,14 +37343,17 @@
       </c>
       <c r="BY155" t="n">
         <v>433.0</v>
+      </c>
+      <c r="BZ155" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -37115,15 +37578,18 @@
         <v>7.0</v>
       </c>
       <c r="BY156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ156" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -37349,14 +37815,17 @@
       </c>
       <c r="BY157" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BZ157" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -37582,14 +38051,17 @@
       </c>
       <c r="BY158" t="n">
         <v>329.0</v>
+      </c>
+      <c r="BZ158" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -37815,14 +38287,17 @@
       </c>
       <c r="BY159" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BZ159" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -38048,14 +38523,17 @@
       </c>
       <c r="BY160" t="n">
         <v>148.0</v>
+      </c>
+      <c r="BZ160" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -38281,14 +38759,17 @@
       </c>
       <c r="BY161" t="n">
         <v>109.0</v>
+      </c>
+      <c r="BZ161" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -38514,14 +38995,17 @@
       </c>
       <c r="BY162" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BZ162" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -38746,15 +39230,18 @@
         <v>27.0</v>
       </c>
       <c r="BY163" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BZ163" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -38980,14 +39467,17 @@
       </c>
       <c r="BY164" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BZ164" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -39213,14 +39703,17 @@
       </c>
       <c r="BY165" t="n">
         <v>1051.0</v>
+      </c>
+      <c r="BZ165" t="n">
+        <v>1036.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -39446,14 +39939,17 @@
       </c>
       <c r="BY166" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BZ166" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -39678,15 +40174,18 @@
         <v>0.0</v>
       </c>
       <c r="BY167" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ167" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -39912,14 +40411,17 @@
       </c>
       <c r="BY168" t="n">
         <v>549.0</v>
+      </c>
+      <c r="BZ168" t="n">
+        <v>548.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -40144,15 +40646,18 @@
         <v>16.0</v>
       </c>
       <c r="BY169" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BZ169" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -40378,14 +40883,17 @@
       </c>
       <c r="BY170" t="n">
         <v>65.0</v>
+      </c>
+      <c r="BZ170" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B171" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -40610,15 +41118,18 @@
         <v>6.0</v>
       </c>
       <c r="BY171" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BZ171" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -40844,14 +41355,17 @@
       </c>
       <c r="BY172" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BZ172" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -41077,14 +41591,17 @@
       </c>
       <c r="BY173" t="n">
         <v>22398.0</v>
+      </c>
+      <c r="BZ173" t="n">
+        <v>22560.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -41310,14 +41827,17 @@
       </c>
       <c r="BY174" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BZ174" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -41543,14 +42063,17 @@
       </c>
       <c r="BY175" t="n">
         <v>121.0</v>
+      </c>
+      <c r="BZ175" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B176" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -41776,14 +42299,17 @@
       </c>
       <c r="BY176" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BZ176" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -42009,14 +42535,17 @@
       </c>
       <c r="BY177" t="n">
         <v>257.0</v>
+      </c>
+      <c r="BZ177" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -42242,14 +42771,17 @@
       </c>
       <c r="BY178" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BZ178" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -42474,15 +43006,18 @@
         <v>5.0</v>
       </c>
       <c r="BY179" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BZ179" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -42707,15 +43242,18 @@
         <v>26.0</v>
       </c>
       <c r="BY180" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BZ180" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -42941,14 +43479,17 @@
       </c>
       <c r="BY181" t="n">
         <v>1223.0</v>
+      </c>
+      <c r="BZ181" t="n">
+        <v>1852.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -43174,14 +43715,17 @@
       </c>
       <c r="BY182" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BZ182" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -43406,15 +43950,18 @@
         <v>14.0</v>
       </c>
       <c r="BY183" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BZ183" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -43640,14 +44187,17 @@
       </c>
       <c r="BY184" t="n">
         <v>1395.0</v>
+      </c>
+      <c r="BZ184" t="n">
+        <v>755.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -43873,14 +44423,17 @@
       </c>
       <c r="BY185" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BZ185" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -44106,14 +44659,17 @@
       </c>
       <c r="BY186" t="n">
         <v>133.0</v>
+      </c>
+      <c r="BZ186" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -44339,14 +44895,17 @@
       </c>
       <c r="BY187" t="n">
         <v>105.0</v>
+      </c>
+      <c r="BZ187" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B188" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -44572,14 +45131,17 @@
       </c>
       <c r="BY188" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BZ188" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B189" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -44805,14 +45367,17 @@
       </c>
       <c r="BY189" t="n">
         <v>65.0</v>
+      </c>
+      <c r="BZ189" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B190" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -45038,14 +45603,17 @@
       </c>
       <c r="BY190" t="n">
         <v>112.0</v>
+      </c>
+      <c r="BZ190" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -45271,14 +45839,17 @@
       </c>
       <c r="BY191" t="n">
         <v>364.0</v>
+      </c>
+      <c r="BZ191" t="n">
+        <v>351.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B192" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -45504,14 +46075,17 @@
       </c>
       <c r="BY192" t="n">
         <v>47.0</v>
+      </c>
+      <c r="BZ192" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -45737,14 +46311,17 @@
       </c>
       <c r="BY193" t="n">
         <v>207.0</v>
+      </c>
+      <c r="BZ193" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -45970,14 +46547,17 @@
       </c>
       <c r="BY194" t="n">
         <v>437.0</v>
+      </c>
+      <c r="BZ194" t="n">
+        <v>409.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -46203,14 +46783,17 @@
       </c>
       <c r="BY195" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BZ195" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -46435,15 +47018,18 @@
         <v>3.0</v>
       </c>
       <c r="BY196" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ196" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B197" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -46669,14 +47255,17 @@
       </c>
       <c r="BY197" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BZ197" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B198" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -46902,14 +47491,17 @@
       </c>
       <c r="BY198" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BZ198" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -47135,14 +47727,17 @@
       </c>
       <c r="BY199" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BZ199" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -47367,15 +47962,18 @@
         <v>1.0</v>
       </c>
       <c r="BY200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -47601,14 +48199,17 @@
       </c>
       <c r="BY201" t="n">
         <v>206.0</v>
+      </c>
+      <c r="BZ201" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B202" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -47834,14 +48435,17 @@
       </c>
       <c r="BY202" t="n">
         <v>108.0</v>
+      </c>
+      <c r="BZ202" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B203" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -48066,15 +48670,18 @@
         <v>1.0</v>
       </c>
       <c r="BY203" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ203" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -48300,14 +48907,17 @@
       </c>
       <c r="BY204" t="n">
         <v>363.0</v>
+      </c>
+      <c r="BZ204" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B205" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -48532,15 +49142,18 @@
         <v>0.0</v>
       </c>
       <c r="BY205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -48765,15 +49378,18 @@
         <v>10.0</v>
       </c>
       <c r="BY206" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BZ206" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B207" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -48999,14 +49615,17 @@
       </c>
       <c r="BY207" t="n">
         <v>198.0</v>
+      </c>
+      <c r="BZ207" t="n">
+        <v>195.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -49231,15 +49850,18 @@
         <v>187.0</v>
       </c>
       <c r="BY208" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BZ208" t="n">
         <v>187.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B209" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -49465,14 +50087,17 @@
       </c>
       <c r="BY209" t="n">
         <v>43.0</v>
+      </c>
+      <c r="BZ209" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B210" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -49698,14 +50323,17 @@
       </c>
       <c r="BY210" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BZ210" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B211" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -49930,15 +50558,18 @@
         <v>53.0</v>
       </c>
       <c r="BY211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BZ211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B212" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -50163,15 +50794,18 @@
         <v>0.0</v>
       </c>
       <c r="BY212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B213" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -50396,15 +51030,18 @@
         <v>95.0</v>
       </c>
       <c r="BY213" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BZ213" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -50629,15 +51266,18 @@
         <v>19.0</v>
       </c>
       <c r="BY214" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BZ214" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B215" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -50863,14 +51503,17 @@
       </c>
       <c r="BY215" t="n">
         <v>5795.0</v>
+      </c>
+      <c r="BZ215" t="n">
+        <v>5898.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -51096,14 +51739,17 @@
       </c>
       <c r="BY216" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BZ216" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -51329,14 +51975,17 @@
       </c>
       <c r="BY217" t="n">
         <v>122.0</v>
+      </c>
+      <c r="BZ217" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -51562,14 +52211,17 @@
       </c>
       <c r="BY218" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BZ218" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -51795,14 +52447,17 @@
       </c>
       <c r="BY219" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BZ219" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -52028,14 +52683,17 @@
       </c>
       <c r="BY220" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BZ220" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B221" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -52261,14 +52919,17 @@
       </c>
       <c r="BY221" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BZ221" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -52494,14 +53155,17 @@
       </c>
       <c r="BY222" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BZ222" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -52727,14 +53391,17 @@
       </c>
       <c r="BY223" t="n">
         <v>19502.0</v>
+      </c>
+      <c r="BZ223" t="n">
+        <v>18633.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B224" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -52960,14 +53627,17 @@
       </c>
       <c r="BY224" t="n">
         <v>794.0</v>
+      </c>
+      <c r="BZ224" t="n">
+        <v>738.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B225" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -53192,15 +53862,18 @@
         <v>0.0</v>
       </c>
       <c r="BY225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B226" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -53425,15 +54098,18 @@
         <v>13.0</v>
       </c>
       <c r="BY226" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BZ226" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B227" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -53658,15 +54334,18 @@
         <v>0.0</v>
       </c>
       <c r="BY227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B228" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -53892,14 +54571,17 @@
       </c>
       <c r="BY228" t="n">
         <v>391.0</v>
+      </c>
+      <c r="BZ228" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B229" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -54125,14 +54807,17 @@
       </c>
       <c r="BY229" t="n">
         <v>241.0</v>
+      </c>
+      <c r="BZ229" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B230" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -54358,14 +55043,17 @@
       </c>
       <c r="BY230" t="n">
         <v>1141.0</v>
+      </c>
+      <c r="BZ230" t="n">
+        <v>1177.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B231" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -54591,14 +55279,17 @@
       </c>
       <c r="BY231" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BZ231" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B232" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -54824,14 +55515,17 @@
       </c>
       <c r="BY232" t="n">
         <v>23.0</v>
+      </c>
+      <c r="BZ232" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B233" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -55057,14 +55751,17 @@
       </c>
       <c r="BY233" t="n">
         <v>459.0</v>
+      </c>
+      <c r="BZ233" t="n">
+        <v>458.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B234" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -55290,14 +55987,17 @@
       </c>
       <c r="BY234" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BZ234" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B235" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -55522,15 +56222,18 @@
         <v>26.0</v>
       </c>
       <c r="BY235" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BZ235" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B236" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -55755,15 +56458,18 @@
         <v>501.0</v>
       </c>
       <c r="BY236" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BZ236" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B237" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -55989,14 +56695,17 @@
       </c>
       <c r="BY237" t="n">
         <v>1362.0</v>
+      </c>
+      <c r="BZ237" t="n">
+        <v>1389.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B238" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -56222,14 +56931,17 @@
       </c>
       <c r="BY238" t="n">
         <v>324.0</v>
+      </c>
+      <c r="BZ238" t="n">
+        <v>325.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B239" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -56455,14 +57167,17 @@
       </c>
       <c r="BY239" t="n">
         <v>152.0</v>
+      </c>
+      <c r="BZ239" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B240" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -56688,14 +57403,17 @@
       </c>
       <c r="BY240" t="n">
         <v>70.0</v>
+      </c>
+      <c r="BZ240" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B241" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -56921,14 +57639,17 @@
       </c>
       <c r="BY241" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BZ241" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B242" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -57154,14 +57875,17 @@
       </c>
       <c r="BY242" t="n">
         <v>448.0</v>
+      </c>
+      <c r="BZ242" t="n">
+        <v>435.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B243" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -57387,14 +58111,17 @@
       </c>
       <c r="BY243" t="n">
         <v>1668.0</v>
+      </c>
+      <c r="BZ243" t="n">
+        <v>1675.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B244" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -57620,14 +58347,17 @@
       </c>
       <c r="BY244" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BZ244" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B245" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -57853,14 +58583,17 @@
       </c>
       <c r="BY245" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BZ245" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -58086,14 +58819,17 @@
       </c>
       <c r="BY246" t="n">
         <v>345.0</v>
+      </c>
+      <c r="BZ246" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B247" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -58318,15 +59054,18 @@
         <v>3.0</v>
       </c>
       <c r="BY247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ247" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B248" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -58552,14 +59291,17 @@
       </c>
       <c r="BY248" t="n">
         <v>43.0</v>
+      </c>
+      <c r="BZ248" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B249" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -58784,15 +59526,18 @@
         <v>915.0</v>
       </c>
       <c r="BY249" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="BZ249" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B250" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -59018,14 +59763,17 @@
       </c>
       <c r="BY250" t="n">
         <v>57.0</v>
+      </c>
+      <c r="BZ250" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -59251,14 +59999,17 @@
       </c>
       <c r="BY251" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BZ251" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B252" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -59484,14 +60235,17 @@
       </c>
       <c r="BY252" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BZ252" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B253" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -59717,14 +60471,17 @@
       </c>
       <c r="BY253" t="n">
         <v>1037.0</v>
+      </c>
+      <c r="BZ253" t="n">
+        <v>1060.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B254" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -59949,15 +60706,18 @@
         <v>8.0</v>
       </c>
       <c r="BY254" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BZ254" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B255" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -60182,15 +60942,18 @@
         <v>4.0</v>
       </c>
       <c r="BY255" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BZ255" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B256" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -60416,14 +61179,17 @@
       </c>
       <c r="BY256" t="n">
         <v>84.0</v>
+      </c>
+      <c r="BZ256" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B257" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -60649,14 +61415,17 @@
       </c>
       <c r="BY257" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BZ257" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B258" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -60733,13 +61502,14 @@
       <c r="BW258"/>
       <c r="BX258"/>
       <c r="BY258"/>
+      <c r="BZ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B259" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -60816,13 +61586,14 @@
       <c r="BW259"/>
       <c r="BX259"/>
       <c r="BY259"/>
+      <c r="BZ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B260" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -60899,13 +61670,14 @@
       <c r="BW260"/>
       <c r="BX260"/>
       <c r="BY260"/>
+      <c r="BZ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B261" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -60982,13 +61754,14 @@
       <c r="BW261"/>
       <c r="BX261"/>
       <c r="BY261"/>
+      <c r="BZ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B262" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -61065,13 +61838,14 @@
       <c r="BW262"/>
       <c r="BX262"/>
       <c r="BY262"/>
+      <c r="BZ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B263" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -61148,13 +61922,14 @@
       <c r="BW263"/>
       <c r="BX263"/>
       <c r="BY263"/>
+      <c r="BZ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B264" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -61231,13 +62006,14 @@
       <c r="BW264"/>
       <c r="BX264"/>
       <c r="BY264"/>
+      <c r="BZ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -61314,13 +62090,14 @@
       <c r="BW265"/>
       <c r="BX265"/>
       <c r="BY265"/>
+      <c r="BZ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -61397,13 +62174,14 @@
       <c r="BW266"/>
       <c r="BX266"/>
       <c r="BY266"/>
+      <c r="BZ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B267" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -61480,13 +62258,14 @@
       <c r="BW267"/>
       <c r="BX267"/>
       <c r="BY267"/>
+      <c r="BZ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -61563,13 +62342,14 @@
       <c r="BW268"/>
       <c r="BX268"/>
       <c r="BY268"/>
+      <c r="BZ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B269" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -61646,13 +62426,14 @@
       <c r="BW269"/>
       <c r="BX269"/>
       <c r="BY269"/>
+      <c r="BZ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B270" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -61729,13 +62510,14 @@
       <c r="BW270"/>
       <c r="BX270"/>
       <c r="BY270"/>
+      <c r="BZ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B271" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -61812,13 +62594,14 @@
       <c r="BW271"/>
       <c r="BX271"/>
       <c r="BY271"/>
+      <c r="BZ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B272" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -61895,13 +62678,14 @@
       <c r="BW272"/>
       <c r="BX272"/>
       <c r="BY272"/>
+      <c r="BZ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B273" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -61978,13 +62762,14 @@
       <c r="BW273"/>
       <c r="BX273"/>
       <c r="BY273"/>
+      <c r="BZ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B274" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -62061,13 +62846,14 @@
       <c r="BW274"/>
       <c r="BX274"/>
       <c r="BY274"/>
+      <c r="BZ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B275" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -62144,13 +62930,14 @@
       <c r="BW275"/>
       <c r="BX275"/>
       <c r="BY275"/>
+      <c r="BZ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B276" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -62227,13 +63014,14 @@
       <c r="BW276"/>
       <c r="BX276"/>
       <c r="BY276"/>
+      <c r="BZ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B277" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -62310,13 +63098,14 @@
       <c r="BW277"/>
       <c r="BX277"/>
       <c r="BY277"/>
+      <c r="BZ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B278" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -62393,13 +63182,14 @@
       <c r="BW278"/>
       <c r="BX278"/>
       <c r="BY278"/>
+      <c r="BZ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B279" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -62476,6 +63266,7 @@
       <c r="BW279"/>
       <c r="BX279"/>
       <c r="BY279"/>
+      <c r="BZ279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
